--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2643.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2643.xlsx
@@ -354,7 +354,7 @@
         <v>1.488528029438983</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.56633005130617</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2643.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2643.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8174467540427102</v>
+        <v>1.175886750221252</v>
       </c>
       <c r="B1">
-        <v>1.488528029438983</v>
+        <v>2.138853549957275</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.294553518295288</v>
       </c>
       <c r="D1">
-        <v>1.56633005130617</v>
+        <v>2.226548433303833</v>
       </c>
       <c r="E1">
-        <v>0.8642105840994196</v>
+        <v>0.7578895092010498</v>
       </c>
     </row>
   </sheetData>
